--- a/biology/Histoire de la zoologie et de la botanique/Brian_Mathew/Brian_Mathew.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Brian_Mathew/Brian_Mathew.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brian Frederick Mathew (MBE, VMH) est un botaniste britannique, né dans le village de Limpsfield, Surrey, Angleterre . Son domaine d'expertise particulier est celui des plantes bulbeuses, en particulier des plantes bulbeuses ornementales, bien qu'il ait contribué à d'autres domaines de la taxonomie et de l' horticulture[1]. Il a écrit ou co-écrit de nombreux livres sur les bulbes et les genres bulbeux qui plaisent à la fois aux botanistes et aux jardiniers, ainsi que des monographies spécialisées sur d'autres genres, notamment Daphne (avec Chris Brickell), Lewisia , Helleborus et Iris . Son travail a été reconnu par la British Royal Horticultural Society et l'International Bulb Society .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brian Frederick Mathew (MBE, VMH) est un botaniste britannique, né dans le village de Limpsfield, Surrey, Angleterre . Son domaine d'expertise particulier est celui des plantes bulbeuses, en particulier des plantes bulbeuses ornementales, bien qu'il ait contribué à d'autres domaines de la taxonomie et de l' horticulture. Il a écrit ou co-écrit de nombreux livres sur les bulbes et les genres bulbeux qui plaisent à la fois aux botanistes et aux jardiniers, ainsi que des monographies spécialisées sur d'autres genres, notamment Daphne (avec Chris Brickell), Lewisia , Helleborus et Iris . Son travail a été reconnu par la British Royal Horticultural Society et l'International Bulb Society .
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brian Mathew est né à Limpsfield, un village du Surrey, en Angleterre. Ses parents ont encouragé Brian et sa sœur à s'occuper des petites parcelles de jardin qui leur étaient allouées. Il raconte que comme son père était un maraîcher très prospère, ses propres intérêts étaient davantage les plantes ornementales. Une première rencontre avec Helleborus orientalis a peut-être jeté les bases d'une monographie ultérieure sur les hellébores[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brian Mathew est né à Limpsfield, un village du Surrey, en Angleterre. Ses parents ont encouragé Brian et sa sœur à s'occuper des petites parcelles de jardin qui leur étaient allouées. Il raconte que comme son père était un maraîcher très prospère, ses propres intérêts étaient davantage les plantes ornementales. Une première rencontre avec Helleborus orientalis a peut-être jeté les bases d'une monographie ultérieure sur les hellébores.
 Il a fait ses études au lycée local. Après avoir quitté l'école, il a passé son service militaire obligatoire dans la Royal Air Force, engagé dans un projet alors secret impliquant la bombe atomique britannique. À la fin de son service, un ami de la famille et jardinier enthousiaste lui a suggéré de fréquenter l'école d'horticulture dirigée par la Royal Horticultural Society à Wisley . L'entrée exigeait trois ans d'expérience de travail préalable. Par l'intermédiaire des bureaux de l'ami de la famille, il a été embauché à la pépinière de plantes Hardy de Birch Farm, gérée par la famille Ingwersen.
 Ayant acquis l'expérience de travail nécessaire, il est passé à l'école d'horticulture RHS. À l'époque, le jardin de rocaille était entretenu par Ken Aslet, bien connu des amateurs de jardins alpins, et la botanique était enseignée par Chris Brickell, avec qui Mathew collabora plus tard. Il a rencontré sa femme, Margaret Briggs, à ce moment; elle était la secrétaire de Brickell.
 En 1963, grâce à une bourse de voyage pour les bourses d'études Bowles, il a organisé une expédition de chasse aux plantes de cinq mois en Iran . De nombreux bulbes ont été collectés, les zones visitées étant particulièrement remarquables pour les Crocus, Fritillaria et les Iris . Les voyages ultérieurs en Turquie et dans les Balkans ont également porté sur les bulbes, mais aussi les 'hellébores'. Ces expéditions ont convaincu Mathew que ses intérêts résidaient plus dans la botanique que dans l'horticulture, et il a trouvé un emploi dans l'herbier des jardins botaniques royaux de Kew . Au début, il a travaillé dans la section d'Afrique tropicale, mais il s'est rapidement déplacé vers la section nouvellement formée des  monocotylées pétaloïdes   (avec les monocotylédones des ordres : Petrosaviales, Dioscoreales, Pandanales, Liliales et Asparagales). Sa carrière ultérieure à Kew reposa en grande partie sur ces groupes de plantes, en particulier les familles Iridaceae, Liliaceae sensu lato et Amaryllidaceae .
@@ -549,11 +563,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Victoria Medal of Honor (VMH), décernée par la Royal Horticultural Society[3], 1991[4].
-Herbert Medal, décerné par l' International Bulb Society, 1992[5].
-MBE (membre de l' Ordre de l'Empire britannique ), honneurs de l'année 2005[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Victoria Medal of Honor (VMH), décernée par la Royal Horticultural Society, 1991.
+Herbert Medal, décerné par l' International Bulb Society, 1992.
+MBE (membre de l' Ordre de l'Empire britannique ), honneurs de l'année 2005.</t>
         </is>
       </c>
     </row>
@@ -583,8 +599,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Livres
-Brian Mathew, Dwarf Bulbs, New York, Arco Pub. Co., 1973 (ISBN 978-0-668-02964-3)
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Brian Mathew, Dwarf Bulbs, New York, Arco Pub. Co., 1973 (ISBN 978-0-668-02964-3)
 Angela Marchant et Brian Mathew, An alphabetical table and cultivation guide to the species of the genus Iris, Kew, Surrey, British Iris Society, 1974 (ISBN 978-0-901483-13-3)
 Per Wendelbo et Brian Mathew, Iridaceae, Graz, Akademische Druck- und Verlagsanstalt, 1975 (ISBN 978-3-201-00728-3)
 Brian Mathew, A gardener's guide to Hellebores, Alpine Garden Society, 1976 (OCLC 255412599)
@@ -614,9 +635,43 @@
 William T. Stearn, P.S. Green, Brian Mathew et Julian M.H. Shaw, The genus Epimedium and other herbaceous Berberidaceae, Portland, Or., Timber Press, 2002, 342 p. (ISBN 978-0-88192-543-2)
 Bobby Ward et Brian Mathew, The plant hunter's garden : the new explorers and their discoveries, Portland, Or., Timber Press, 2004, 340 p. (ISBN 978-0-88192-696-5)
 John Fielding, Nicholas J. Turland et Brian Mathew, Flowers of Crete, Kew, Royal botanic gardens, 2005 (ISBN 978-1-84246-079-5)
-(en) Hugh McAllister, Josephine Hague et Brian Mathew, The Genus Sorbus : Mountain Ash and other Rowans, Kew, Royal Botanic Gardens, 2005, 252 p. (ISBN 978-1-84246-088-7)
-Autres ouvrages
-Yinzheng Wang, Michael G. Gilbert, Brian F. Mathew, Christopher Brickell et Lorin I. Nevling, Daphne (lire en ligne) in Wu, Raven et Hong 1994 onwards
+(en) Hugh McAllister, Josephine Hague et Brian Mathew, The Genus Sorbus : Mountain Ash and other Rowans, Kew, Royal Botanic Gardens, 2005, 252 p. (ISBN 978-1-84246-088-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brian_Mathew</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brian_Mathew</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yinzheng Wang, Michael G. Gilbert, Brian F. Mathew, Christopher Brickell et Lorin I. Nevling, Daphne (lire en ligne) in Wu, Raven et Hong 1994 onwards
 Yu-tang Zhao, Henry J. Noltie, Brian F. Mathew, Christopher Brickell et Lorin I. Nevling, Iridaceae (lire en ligne) in Wu, Raven et Hong 1994 onwards
 Yinzheng Wang, Michael G. Gilbert, Brian F. Mathew, Christopher Brickell et Lorin I. Nevling, Thymeleaceae (lire en ligne) in Wu, Raven et Hong 1994 onwards</t>
         </is>
